--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/word_level_predictions_99.xlsx
@@ -3674,418 +3674,418 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J63" s="2" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K63" s="2" t="b">
+      <c r="K65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="2" t="inlineStr">
+      <c r="J70" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K64" s="2" t="b">
+      <c r="K70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>14</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/99/word_level_predictions_99.xlsx
@@ -3674,418 +3674,418 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11913,237 +11913,237 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>2</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>3</v>
-      </c>
-      <c r="E223" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>15</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>15</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>5</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>15</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
